--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/сортовані_біграми_не_перетинаючі_без_пробілів.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/без_пробілів/сортовані_біграми_не_перетинаючі_без_пробілів.xlsx
@@ -739,310 +739,248 @@
           <t>ал</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.010825</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.01082456644886003</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>бы</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.003381</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.003380796008587423</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>во</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.007962</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.007962092281351783</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>го</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.009129</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0.00912915242674942</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>да</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.004912</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0.00491235344867945</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>ен</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.008965</t>
-        </is>
+      <c r="L2" t="n">
+        <v>0.008965295844730841</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>же</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.003635</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.003634940911310117</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>за</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.006464</t>
-        </is>
+      <c r="P2" t="n">
+        <v>0.006463974960039058</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>ил</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.007792</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.007791547675577343</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>йс</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.001421</t>
-        </is>
+      <c r="T2" t="n">
+        <v>0.001421205048120331</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>ко</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.010564</t>
-        </is>
+      <c r="V2" t="n">
+        <v>0.01056373352238147</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>ла</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.009240</t>
-        </is>
+      <c r="X2" t="n">
+        <v>0.009239504818721116</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ма</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.004367</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>0.004367279512576829</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>но</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.011627</t>
-        </is>
+      <c r="AB2" t="n">
+        <v>0.01162712929956327</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>ов</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.010624</t>
-        </is>
+      <c r="AD2" t="n">
+        <v>0.01062392573618422</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>по</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.011085</t>
-        </is>
+      <c r="AF2" t="n">
+        <v>0.01108539937533858</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>ро</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.009684</t>
-        </is>
+      <c r="AH2" t="n">
+        <v>0.009684258398485832</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
           <t>ст</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.011159</t>
-        </is>
+      <c r="AJ2" t="n">
+        <v>0.01115896763665305</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
           <t>то</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.016419</t>
-        </is>
+      <c r="AL2" t="n">
+        <v>0.01641909832063724</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>ул</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.002642</t>
-        </is>
+      <c r="AN2" t="n">
+        <v>0.00264176938356485</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>фе</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.000565</t>
-        </is>
+      <c r="AP2" t="n">
+        <v>0.0005651380073702022</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>хо</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.002251</t>
-        </is>
+      <c r="AR2" t="n">
+        <v>0.002250519993847018</v>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
           <t>це</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>0.001027</t>
-        </is>
+      <c r="AT2" t="n">
+        <v>0.001026611646524568</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
           <t>че</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0.004504</t>
-        </is>
+      <c r="AV2" t="n">
+        <v>0.004504383999571967</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
           <t>ше</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0.002471</t>
-        </is>
+      <c r="AX2" t="n">
+        <v>0.002471224777790411</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
           <t>ще</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>0.001485</t>
-        </is>
+      <c r="AZ2" t="n">
+        <v>0.001484741273801005</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
           <t>ыл</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>0.002291</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>0.00229064813638218</v>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
           <t>ьн</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>0.002695</t>
-        </is>
+      <c r="BD2" t="n">
+        <v>0.002695273573611733</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
           <t>эт</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0.002796</t>
-        </is>
+      <c r="BF2" t="n">
+        <v>0.002795593929949639</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
           <t>ющ</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>0.000552</t>
-        </is>
+      <c r="BH2" t="n">
+        <v>0.0005517619598584814</v>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
           <t>ят</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>0.001903</t>
-        </is>
+      <c r="BJ2" t="n">
+        <v>0.001902742758542278</v>
       </c>
     </row>
     <row r="3">
@@ -1051,310 +989,248 @@
           <t>ан</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.007962</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.007962092281351783</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>бе</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.002665</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.002665177466710362</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>ва</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.007641</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0.007641067141070485</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>га</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.002618</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0.002618361300419339</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>де</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.004605</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.004604704355909872</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ер</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.008357</t>
-        </is>
+      <c r="L3" t="n">
+        <v>0.008356685682947547</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>жа</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.001619</t>
-        </is>
+      <c r="N3" t="n">
+        <v>0.001618501748918212</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>зн</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.001749</t>
-        </is>
+      <c r="P3" t="n">
+        <v>0.00174891821215749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>ив</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.005571</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0.005571123788631697</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>йн</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.001130</t>
-        </is>
+      <c r="T3" t="n">
+        <v>0.001130276014740404</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>ка</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.008484</t>
-        </is>
+      <c r="V3" t="n">
+        <v>0.008483758134308893</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>ли</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.008250</t>
-        </is>
+      <c r="X3" t="n">
+        <v>0.008249677302853779</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ми</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.004080</t>
-        </is>
+      <c r="Z3" t="n">
+        <v>0.004079694491074832</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>на</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.011055</t>
-        </is>
+      <c r="AB3" t="n">
+        <v>0.01105530326843721</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>от</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.009002</t>
-        </is>
+      <c r="AD3" t="n">
+        <v>0.009002079975388072</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
           <t>пр</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.007521</t>
-        </is>
+      <c r="AF3" t="n">
+        <v>0.007520682713464998</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
           <t>ра</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.008791</t>
-        </is>
+      <c r="AH3" t="n">
+        <v>0.00879140722707847</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
           <t>ск</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.004839</t>
-        </is>
+      <c r="AJ3" t="n">
+        <v>0.004838785187364985</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
           <t>те</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.006992</t>
-        </is>
+      <c r="AL3" t="n">
+        <v>0.006992328836752028</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t>уд</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.002381</t>
-        </is>
+      <c r="AN3" t="n">
+        <v>0.002380936457086296</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>фи</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="AP3" t="n">
+        <v>0.0004414095678867852</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>ха</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0.000739</t>
-        </is>
+      <c r="AR3" t="n">
+        <v>0.0007390266250225721</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
           <t>ца</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>0.000779</t>
-        </is>
+      <c r="AT3" t="n">
+        <v>0.0007791547675577344</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>0.003632</t>
-        </is>
+      <c r="AV3" t="n">
+        <v>0.003631596899432187</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
           <t>ши</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0.002251</t>
-        </is>
+      <c r="AX3" t="n">
+        <v>0.002250519993847018</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
           <t>щи</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>0.001254</t>
-        </is>
+      <c r="AZ3" t="n">
+        <v>0.001254004454223822</v>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
           <t>ый</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>0.002224</t>
-        </is>
+      <c r="BB3" t="n">
+        <v>0.002223767898823577</v>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>ьс</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>0.001846</t>
-        </is>
+      <c r="BD3" t="n">
+        <v>0.001845894556617465</v>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
           <t>эк</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="BF3" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
           <t>юс</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>0.000488</t>
-        </is>
+      <c r="BH3" t="n">
+        <v>0.0004882257341778078</v>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
           <t>яс</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>0.001889</t>
-        </is>
+      <c r="BJ3" t="n">
+        <v>0.001889366711030558</v>
       </c>
     </row>
     <row r="4">
@@ -1363,310 +1239,248 @@
           <t>ат</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.007063</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.007062553086188562</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>бо</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.002368</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.002367560409574575</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>ве</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.006839</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0.006838504290367239</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>гл</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.001886</t>
-        </is>
+      <c r="H4" t="n">
+        <v>0.001886022699152627</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>до</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.003979</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0.003979374134736926</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ел</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.007340</t>
-        </is>
+      <c r="L4" t="n">
+        <v>0.007340106072056768</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>жи</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.001384</t>
-        </is>
+      <c r="N4" t="n">
+        <v>0.001384420917463099</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>зв</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.001461</t>
-        </is>
+      <c r="P4" t="n">
+        <v>0.001461333190655493</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>ин</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.005564</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0.005564435764875837</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>йп</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.001067</t>
-        </is>
+      <c r="T4" t="n">
+        <v>0.001066739789059731</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>ки</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.003822</t>
-        </is>
+      <c r="V4" t="n">
+        <v>0.003822205576474208</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>ло</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.007882</t>
-        </is>
+      <c r="X4" t="n">
+        <v>0.007881835996281459</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>мо</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.003993</t>
-        </is>
+      <c r="Z4" t="n">
+        <v>0.003992750182248647</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>не</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.010634</t>
-        </is>
+      <c r="AB4" t="n">
+        <v>0.010633957771818</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>он</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.008952</t>
-        </is>
+      <c r="AD4" t="n">
+        <v>0.00895191979721912</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
           <t>пе</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.002505</t>
-        </is>
+      <c r="AF4" t="n">
+        <v>0.002504664896569713</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>ре</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.006875</t>
-        </is>
+      <c r="AH4" t="n">
+        <v>0.006875288421024472</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>ся</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.004538</t>
-        </is>
+      <c r="AJ4" t="n">
+        <v>0.004537824118351268</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
           <t>та</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.006772</t>
-        </is>
+      <c r="AL4" t="n">
+        <v>0.006771624052808635</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t>ут</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.002257</t>
-        </is>
+      <c r="AN4" t="n">
+        <v>0.002257208017602878</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>фо</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.000324</t>
-        </is>
+      <c r="AP4" t="n">
+        <v>0.0003243691521592285</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>хн</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0.000679</t>
-        </is>
+      <c r="AR4" t="n">
+        <v>0.0006788344112198286</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
           <t>ци</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>0.000351</t>
-        </is>
+      <c r="AT4" t="n">
+        <v>0.00035112124718267</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
           <t>ча</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>0.002695</t>
-        </is>
+      <c r="AV4" t="n">
+        <v>0.002695273573611733</v>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
           <t>ша</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>0.001274</t>
-        </is>
+      <c r="AX4" t="n">
+        <v>0.001274068525491403</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
           <t>ща</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>0.000565</t>
-        </is>
+      <c r="AZ4" t="n">
+        <v>0.0005651380073702022</v>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
           <t>ым</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>0.001699</t>
-        </is>
+      <c r="BB4" t="n">
+        <v>0.001698758033988537</v>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
           <t>ьк</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>0.001759</t>
-        </is>
+      <c r="BD4" t="n">
+        <v>0.00175895024779128</v>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>эл</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="BF4" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
           <t>ют</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>0.000472</t>
-        </is>
+      <c r="BH4" t="n">
+        <v>0.0004715056747881568</v>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
           <t>яв</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>0.001846</t>
-        </is>
+      <c r="BJ4" t="n">
+        <v>0.001845894556617465</v>
       </c>
     </row>
     <row r="5">
@@ -1675,310 +1489,248 @@
           <t>ас</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.006655</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.006654583637081079</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>бу</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.001428</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.001427893071876191</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>ви</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.004504</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0.004504383999571967</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>гр</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.001538</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.001538245463847888</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>ди</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.002528</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0.002528072979715224</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>ет</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.007136</t>
-        </is>
+      <c r="L5" t="n">
+        <v>0.007136121347503026</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>жд</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.000900</t>
-        </is>
+      <c r="N5" t="n">
+        <v>0.0008995391951632212</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>зд</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.001013</t>
-        </is>
+      <c r="P5" t="n">
+        <v>0.001013235599012848</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>ит</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.005521</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0.005520963610462744</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>йт</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.000853</t>
-        </is>
+      <c r="T5" t="n">
+        <v>0.0008527230288721986</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
           <t>кр</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.002732</t>
-        </is>
+      <c r="V5" t="n">
+        <v>0.002732057704268966</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>ле</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.005534</t>
-        </is>
+      <c r="X5" t="n">
+        <v>0.005534339657974465</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ме</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.003799</t>
-        </is>
+      <c r="Z5" t="n">
+        <v>0.003798797493328696</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>ни</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.008638</t>
-        </is>
+      <c r="AB5" t="n">
+        <v>0.008637582680693682</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>ос</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.008801</t>
-        </is>
+      <c r="AD5" t="n">
+        <v>0.008801439262712261</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
           <t>па</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.001906</t>
-        </is>
+      <c r="AF5" t="n">
+        <v>0.001906086770420209</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>ри</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.006862</t>
-        </is>
+      <c r="AH5" t="n">
+        <v>0.006861912373512751</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>сь</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.004093</t>
-        </is>
+      <c r="AJ5" t="n">
+        <v>0.004093070538586553</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
           <t>ть</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.005334</t>
-        </is>
+      <c r="AL5" t="n">
+        <v>0.005333698945298654</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>ус</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.002123</t>
-        </is>
+      <c r="AN5" t="n">
+        <v>0.002123447542485671</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
           <t>фа</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.000314</t>
-        </is>
+      <c r="AP5" t="n">
+        <v>0.0003143371165254379</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>хи</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0.000665</t>
-        </is>
+      <c r="AR5" t="n">
+        <v>0.0006654583637081079</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>цо</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>0.000294</t>
-        </is>
+      <c r="AT5" t="n">
+        <v>0.0002942730452578568</v>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
           <t>чи</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>0.001906</t>
-        </is>
+      <c r="AV5" t="n">
+        <v>0.001906086770420209</v>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
           <t>шл</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0.000495</t>
-        </is>
+      <c r="AX5" t="n">
+        <v>0.0004949137579336682</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
           <t>щу</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0.000184</t>
-        </is>
+      <c r="AZ5" t="n">
+        <v>0.0001839206532861605</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
           <t>ыв</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.001498</t>
-        </is>
+      <c r="BB5" t="n">
+        <v>0.001498117321312725</v>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>ьв</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>0.001294</t>
-        </is>
+      <c r="BD5" t="n">
+        <v>0.001294132596758984</v>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>эх</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="BF5" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
           <t>юд</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0.000391</t>
-        </is>
+      <c r="BH5" t="n">
+        <v>0.0003912493897178323</v>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
           <t>ян</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0.001812</t>
-        </is>
+      <c r="BJ5" t="n">
+        <v>0.001812454437838163</v>
       </c>
     </row>
     <row r="6">
@@ -1987,310 +1739,248 @@
           <t>ак</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.006240</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.006239926164217736</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>бр</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.001241</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0.001240628406712101</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.003341</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0.00334066786605226</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>гд</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.001127</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0.001126932002862474</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>дн</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.002521</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0.002521384955959364</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>ес</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.006765</t>
-        </is>
+      <c r="L6" t="n">
+        <v>0.006764936029052775</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>жн</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.000782</t>
-        </is>
+      <c r="N6" t="n">
+        <v>0.0007824987794356645</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>зо</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.000863</t>
-        </is>
+      <c r="P6" t="n">
+        <v>0.0008627550645059891</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>ис</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.005374</t>
-        </is>
+      <c r="R6" t="n">
+        <v>0.005373827087833816</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>йк</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.000843</t>
-        </is>
+      <c r="T6" t="n">
+        <v>0.000842690993238408</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>ку</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.002712</t>
-        </is>
+      <c r="V6" t="n">
+        <v>0.002711993633001385</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>ль</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.004170</t>
-        </is>
+      <c r="X6" t="n">
+        <v>0.004169982811778947</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>мн</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.002324</t>
-        </is>
+      <c r="Z6" t="n">
+        <v>0.002324088255161482</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>ну</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0.004578</t>
-        </is>
+      <c r="AB6" t="n">
+        <v>0.004577952260886431</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
           <t>ор</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.007935</t>
-        </is>
+      <c r="AD6" t="n">
+        <v>0.007935340186328342</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
           <t>пи</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0.001398</t>
-        </is>
+      <c r="AF6" t="n">
+        <v>0.00139779696497482</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>ру</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0.003013</t>
-        </is>
+      <c r="AH6" t="n">
+        <v>0.003012954702015101</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
           <t>се</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0.003488</t>
-        </is>
+      <c r="AJ6" t="n">
+        <v>0.003487804388681189</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
           <t>ти</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0.004672</t>
-        </is>
+      <c r="AL6" t="n">
+        <v>0.004671584593468476</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>ув</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>0.001642</t>
-        </is>
+      <c r="AN6" t="n">
+        <v>0.001641909832063723</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
           <t>фр</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="AP6" t="n">
+        <v>0.000210672748309602</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>хв</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0.000478</t>
-        </is>
+      <c r="AR6" t="n">
+        <v>0.0004781936985440172</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
           <t>цу</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>0.000214</t>
-        </is>
+      <c r="AT6" t="n">
+        <v>0.0002140167601875322</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
           <t>чн</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>0.000943</t>
-        </is>
+      <c r="AV6" t="n">
+        <v>0.0009430113495763136</v>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
           <t>шн</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>0.000475</t>
-        </is>
+      <c r="AX6" t="n">
+        <v>0.0004748496866660871</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
           <t>щн</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="AZ6" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
           <t>ыс</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>0.001227</t>
-        </is>
+      <c r="BB6" t="n">
+        <v>0.00122725235920038</v>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>ье</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>0.001277</t>
-        </is>
+      <c r="BD6" t="n">
+        <v>0.001277412537369333</v>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
           <t>эс</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="BF6" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
           <t>юв</t>
         </is>
       </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="BH6" t="n">
+        <v>0.000334401187793019</v>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
           <t>ял</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>0.001177</t>
-        </is>
+      <c r="BJ6" t="n">
+        <v>0.001177092181031427</v>
       </c>
     </row>
     <row r="7">
@@ -2299,310 +1989,248 @@
           <t>ар</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.005742</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.005741668394406137</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>ба</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.001154</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.001153684097885916</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>вы</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.003150</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0.00315005918901024</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>ги</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.000769</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.0007691227319239438</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>ду</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.001776</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0.001775670307180931</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>ем</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.005076</t>
-        </is>
+      <c r="L7" t="n">
+        <v>0.005076210030698029</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>жу</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="N7" t="n">
+        <v>0.0002474568789668341</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>зе</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.000699</t>
-        </is>
+      <c r="P7" t="n">
+        <v>0.0006988984824874098</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>ик</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.004240</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0.004240207061215482</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>йв</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.000796</t>
-        </is>
+      <c r="T7" t="n">
+        <v>0.0007958748269473854</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>кв</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.001277</t>
-        </is>
+      <c r="V7" t="n">
+        <v>0.001277412537369333</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>лс</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.003056</t>
-        </is>
+      <c r="X7" t="n">
+        <v>0.003056426856428194</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>му</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.002324</t>
-        </is>
+      <c r="Z7" t="n">
+        <v>0.002324088255161482</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>нн</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0.004417</t>
-        </is>
+      <c r="AB7" t="n">
+        <v>0.004417439690745781</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>ол</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>0.007795</t>
-        </is>
+      <c r="AD7" t="n">
+        <v>0.007794891687455274</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
           <t>пл</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0.001050</t>
-        </is>
+      <c r="AF7" t="n">
+        <v>0.00105001972967008</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>ры</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.001568</t>
-        </is>
+      <c r="AH7" t="n">
+        <v>0.001568341570749259</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
           <t>со</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.003291</t>
-        </is>
+      <c r="AJ7" t="n">
+        <v>0.003290507687883307</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
           <t>тр</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0.003565</t>
-        </is>
+      <c r="AL7" t="n">
+        <v>0.003564716661873583</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>уп</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>0.001562</t>
-        </is>
+      <c r="AN7" t="n">
+        <v>0.001561653546993399</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>фл</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="AP7" t="n">
+        <v>0.0001170404157275567</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>хп</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.000451</t>
-        </is>
+      <c r="AR7" t="n">
+        <v>0.0004514416035205757</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>цы</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>0.000164</t>
-        </is>
+      <c r="AT7" t="n">
+        <v>0.0001638565820185793</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
           <t>чк</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>0.000602</t>
-        </is>
+      <c r="AV7" t="n">
+        <v>0.0006019221380274343</v>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
           <t>шк</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0.000472</t>
-        </is>
+      <c r="AX7" t="n">
+        <v>0.0004715056747881568</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
           <t>щь</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="AZ7" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
           <t>ые</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.001154</t>
-        </is>
+      <c r="BB7" t="n">
+        <v>0.001153684097885916</v>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>ьп</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>0.001211</t>
-        </is>
+      <c r="BD7" t="n">
+        <v>0.001210532299810729</v>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
           <t>эн</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="BF7" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
           <t>юп</t>
         </is>
       </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>0.000311</t>
-        </is>
+      <c r="BH7" t="n">
+        <v>0.0003109931046475077</v>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
           <t>яп</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>0.001124</t>
-        </is>
+      <c r="BJ7" t="n">
+        <v>0.001123587990984544</v>
       </c>
     </row>
     <row r="8">
@@ -2611,310 +2239,248 @@
           <t>аз</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.005501</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.005500899539195163</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>би</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.000843</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.000842690993238408</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>вн</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.001585</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0.00158506163013891</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>гу</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.000579</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0.0005785140548819229</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>дв</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.001257</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0.001257348466101752</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>ев</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.004538</t>
-        </is>
+      <c r="L8" t="n">
+        <v>0.004537824118351268</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>жк</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.000197</t>
-        </is>
+      <c r="N8" t="n">
+        <v>0.0001972967007978812</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>зи</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.000699</t>
-        </is>
+      <c r="P8" t="n">
+        <v>0.0006988984824874098</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>им</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.003565</t>
-        </is>
+      <c r="R8" t="n">
+        <v>0.003564716661873583</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>йи</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.000702</t>
-        </is>
+      <c r="T8" t="n">
+        <v>0.00070224249436534</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>кн</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.001204</t>
-        </is>
+      <c r="V8" t="n">
+        <v>0.001203844276054869</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>лу</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.001669</t>
-        </is>
+      <c r="X8" t="n">
+        <v>0.001668661927087165</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>мс</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.001201</t>
-        </is>
+      <c r="Z8" t="n">
+        <v>0.001200500264176938</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>ны</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0.003712</t>
-        </is>
+      <c r="AB8" t="n">
+        <v>0.003711853184502512</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>ом</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>0.007618</t>
-        </is>
+      <c r="AD8" t="n">
+        <v>0.007617659057924974</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
           <t>пу</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0.000896</t>
-        </is>
+      <c r="AF8" t="n">
+        <v>0.000896195183285291</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>рн</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0.001341</t>
-        </is>
+      <c r="AH8" t="n">
+        <v>0.001340948763050006</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
           <t>сл</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0.003030</t>
-        </is>
+      <c r="AJ8" t="n">
+        <v>0.003029674761404753</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
           <t>тв</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>0.003056</t>
-        </is>
+      <c r="AL8" t="n">
+        <v>0.003056426856428194</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
           <t>ун</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0.001528</t>
-        </is>
+      <c r="AN8" t="n">
+        <v>0.001528213428214097</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>фу</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="AP8" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>хс</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0.000361</t>
-        </is>
+      <c r="AR8" t="n">
+        <v>0.0003611532828164606</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
           <t>цв</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>0.000127</t>
-        </is>
+      <c r="AT8" t="n">
+        <v>0.0001270724513613472</v>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
           <t>чу</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>0.000599</t>
-        </is>
+      <c r="AV8" t="n">
+        <v>0.000598578126149504</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
           <t>шу</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>0.000465</t>
-        </is>
+      <c r="AX8" t="n">
+        <v>0.0004648176510322965</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
           <t>щв</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AZ8" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
           <t>ых</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>0.001040</t>
-        </is>
+      <c r="BB8" t="n">
+        <v>0.001039987694036289</v>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>ьи</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>0.000997</t>
-        </is>
+      <c r="BD8" t="n">
+        <v>0.0009965155396231967</v>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
           <t>эм</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BF8" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
           <t>юн</t>
         </is>
       </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>0.000304</t>
-        </is>
+      <c r="BH8" t="n">
+        <v>0.0003043050808916473</v>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
           <t>яд</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>0.001050</t>
-        </is>
+      <c r="BJ8" t="n">
+        <v>0.00105001972967008</v>
       </c>
     </row>
     <row r="9">
@@ -2923,310 +2489,248 @@
           <t>ав</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.005029</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0.005029393864407006</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>бл</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.000635</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.0006353622568067361</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>вп</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.001154</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0.001153684097885916</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>ге</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.000568</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0.0005684820192481324</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>др</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.001251</t>
-        </is>
+      <c r="J9" t="n">
+        <v>0.001250660442345891</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>ед</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.004036</t>
-        </is>
+      <c r="L9" t="n">
+        <v>0.00403622233666174</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>жо</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="N9" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>зу</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.000522</t>
-        </is>
+      <c r="P9" t="n">
+        <v>0.0005216658529571097</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>из</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.003254</t>
-        </is>
+      <c r="R9" t="n">
+        <v>0.003253723557226075</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>йм</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.000522</t>
-        </is>
+      <c r="T9" t="n">
+        <v>0.0005216658529571097</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
           <t>ке</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.001184</t>
-        </is>
+      <c r="V9" t="n">
+        <v>0.001183780204787287</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>ля</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.001632</t>
-        </is>
+      <c r="X9" t="n">
+        <v>0.001631877796429933</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>мп</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.001147</t>
-        </is>
+      <c r="Z9" t="n">
+        <v>0.001146996074130055</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>ня</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0.001722</t>
-        </is>
+      <c r="AB9" t="n">
+        <v>0.001722166117134048</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>од</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>0.006126</t>
-        </is>
+      <c r="AD9" t="n">
+        <v>0.006126229760368109</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
           <t>пя</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0.000492</t>
-        </is>
+      <c r="AF9" t="n">
+        <v>0.000491569746055738</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
           <t>ря</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0.001271</t>
-        </is>
+      <c r="AH9" t="n">
+        <v>0.001270724513613472</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
           <t>си</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>0.002458</t>
-        </is>
+      <c r="AJ9" t="n">
+        <v>0.00245784873027869</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
           <t>ту</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0.002551</t>
-        </is>
+      <c r="AL9" t="n">
+        <v>0.002551481062860735</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>ук</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>0.001525</t>
-        </is>
+      <c r="AN9" t="n">
+        <v>0.001524869416336167</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>фы</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="AP9" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
           <t>ху</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0.000351</t>
-        </is>
+      <c r="AR9" t="n">
+        <v>0.00035112124718267</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
           <t>цр</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="AT9" t="n">
+        <v>7.356826131446419e-05</v>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
           <t>чь</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>0.000308</t>
-        </is>
+      <c r="AV9" t="n">
+        <v>0.0003076490927695775</v>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
           <t>шь</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>0.000381</t>
-        </is>
+      <c r="AX9" t="n">
+        <v>0.0003812173540840417</v>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
           <t>щт</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AZ9" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
           <t>ыт</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>0.000913</t>
-        </is>
+      <c r="BB9" t="n">
+        <v>0.000912915242674942</v>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
           <t>ьт</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>0.000846</t>
-        </is>
+      <c r="BD9" t="n">
+        <v>0.0008460350051163382</v>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>эз</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BF9" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
           <t>юч</t>
         </is>
       </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>0.000271</t>
-        </is>
+      <c r="BH9" t="n">
+        <v>0.0002708649621123454</v>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
           <t>як</t>
         </is>
       </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>0.000940</t>
-        </is>
+      <c r="BJ9" t="n">
+        <v>0.0009396673376983835</v>
       </c>
     </row>
     <row r="10">
@@ -3235,310 +2739,248 @@
           <t>ам</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.004611</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0.004611392379665733</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>бя</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.000425</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.0004246895084971342</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>вш</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.001140</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0.001140308050374195</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>гн</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.000545</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.0005450739361026211</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>дь</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.000706</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0.0007055865062432702</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>ег</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.004026</t>
-        </is>
+      <c r="L10" t="n">
+        <v>0.004026190301027949</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>жс</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="N10" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>зл</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.000485</t>
-        </is>
+      <c r="P10" t="n">
+        <v>0.0004848817222998776</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>ич</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.002635</t>
-        </is>
+      <c r="R10" t="n">
+        <v>0.00263508135980899</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>йд</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.000505</t>
-        </is>
+      <c r="T10" t="n">
+        <v>0.0005049457935674587</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
           <t>кт</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.001033</t>
-        </is>
+      <c r="V10" t="n">
+        <v>0.001033299670280429</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>лн</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.001465</t>
-        </is>
+      <c r="X10" t="n">
+        <v>0.001464677202533423</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>мв</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.000936</t>
-        </is>
+      <c r="Z10" t="n">
+        <v>0.0009363233258204533</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>нд</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.001127</t>
-        </is>
+      <c r="AB10" t="n">
+        <v>0.001126932002862474</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>ог</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0.005611</t>
-        </is>
+      <c r="AD10" t="n">
+        <v>0.005611251931166859</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
           <t>пы</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="AF10" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
           <t>рг</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0.001227</t>
-        </is>
+      <c r="AH10" t="n">
+        <v>0.00122725235920038</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>сп</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>0.002331</t>
-        </is>
+      <c r="AJ10" t="n">
+        <v>0.002330776278917343</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
           <t>тн</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>0.002140</t>
-        </is>
+      <c r="AL10" t="n">
+        <v>0.002140167601875322</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>уж</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>0.001505</t>
-        </is>
+      <c r="AN10" t="n">
+        <v>0.001504805345068586</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>фс</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="AP10" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
           <t>хл</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="AR10" t="n">
+        <v>0.000334401187793019</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
           <t>цс</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="AT10" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
           <t>чо</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="AV10" t="n">
+        <v>0.0001237284394834171</v>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
           <t>шо</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>0.000311</t>
-        </is>
+      <c r="AX10" t="n">
+        <v>0.0003109931046475077</v>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
           <t>що</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AZ10" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
           <t>ын</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>0.000655</t>
-        </is>
+      <c r="BB10" t="n">
+        <v>0.0006554263280743174</v>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>ьо</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>0.000709</t>
-        </is>
+      <c r="BD10" t="n">
+        <v>0.0007089305181212003</v>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
           <t>эг</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BF10" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
           <t>юб</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>0.000251</t>
-        </is>
+      <c r="BH10" t="n">
+        <v>0.0002508008908447643</v>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
           <t>яи</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>0.000916</t>
-        </is>
+      <c r="BJ10" t="n">
+        <v>0.0009162592545528722</v>
       </c>
     </row>
     <row r="11">
@@ -3547,310 +2989,248 @@
           <t>ап</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.003444</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0.003444332234268096</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>бн</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.000398</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.0003979374134736927</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>вк</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.001063</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0.001063395777181801</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>гк</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.000107</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.0001070083800937661</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>дс</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.000612</t>
-        </is>
+      <c r="J11" t="n">
+        <v>0.0006119541736612249</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>еп</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.003645</t>
-        </is>
+      <c r="L11" t="n">
+        <v>0.003644972946943908</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>жл</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="N11" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>зы</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.000482</t>
-        </is>
+      <c r="P11" t="n">
+        <v>0.0004815377104219474</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>ип</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.002535</t>
-        </is>
+      <c r="R11" t="n">
+        <v>0.002534761003471084</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>йч</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.000461</t>
-        </is>
+      <c r="T11" t="n">
+        <v>0.0004614736391543663</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>кл</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.001017</t>
-        </is>
+      <c r="V11" t="n">
+        <v>0.001016579610890778</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>лв</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.001140</t>
-        </is>
+      <c r="X11" t="n">
+        <v>0.001140308050374195</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>мы</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.000793</t>
-        </is>
+      <c r="Z11" t="n">
+        <v>0.0007925308150694551</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>нт</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0.001090</t>
-        </is>
+      <c r="AB11" t="n">
+        <v>0.001090147872205242</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>об</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0.004621</t>
-        </is>
+      <c r="AD11" t="n">
+        <v>0.004621424415299523</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0.000311</t>
-        </is>
+      <c r="AF11" t="n">
+        <v>0.0003109931046475077</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>рт</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0.001087</t>
-        </is>
+      <c r="AH11" t="n">
+        <v>0.001086803860327312</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
           <t>са</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>0.002023</t>
-        </is>
+      <c r="AJ11" t="n">
+        <v>0.002023127186147765</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
           <t>ты</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0.001645</t>
-        </is>
+      <c r="AL11" t="n">
+        <v>0.001645253843941654</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
           <t>ум</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>0.001425</t>
-        </is>
+      <c r="AN11" t="n">
+        <v>0.001424549059998261</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>фт</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="AP11" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
           <t>хк</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0.000284</t>
-        </is>
+      <c r="AR11" t="n">
+        <v>0.0002842410096240662</v>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>цн</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>0.000043</t>
-        </is>
+      <c r="AT11" t="n">
+        <v>4.347215441309247e-05</v>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
           <t>чр</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="AV11" t="n">
+        <v>0.0001170404157275567</v>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>0.000100</t>
-        </is>
+      <c r="AX11" t="n">
+        <v>0.0001003203563379057</v>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
           <t>щб</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AZ11" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
           <t>ып</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>0.000625</t>
-        </is>
+      <c r="BB11" t="n">
+        <v>0.0006253302211729456</v>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
           <t>ьм</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>0.000706</t>
-        </is>
+      <c r="BD11" t="n">
+        <v>0.0007055865062432702</v>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
           <t>эф</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BF11" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
           <t>юк</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="BH11" t="n">
+        <v>0.0002273928076992529</v>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t>ям</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>0.000622</t>
-        </is>
+      <c r="BJ11" t="n">
+        <v>0.0006219862092950154</v>
       </c>
     </row>
     <row r="12">
@@ -3859,310 +3239,248 @@
           <t>ад</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.003384</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0.003384140020465353</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>бь</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.000221</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.0002207047839433926</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>вр</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.001053</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0.00105336374154801</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>гп</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="H12" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>ды</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.000568</t>
-        </is>
+      <c r="J12" t="n">
+        <v>0.0005684820192481324</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ек</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.002508</t>
-        </is>
+      <c r="L12" t="n">
+        <v>0.002508008908447643</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>жб</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="N12" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>зр</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.000395</t>
-        </is>
+      <c r="P12" t="n">
+        <v>0.0003945934015957624</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>ид</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.002444</t>
-        </is>
+      <c r="R12" t="n">
+        <v>0.002444472682766969</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>йо</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.000458</t>
-        </is>
+      <c r="T12" t="n">
+        <v>0.0004581296272764361</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
           <t>кс</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.000629</t>
-        </is>
+      <c r="V12" t="n">
+        <v>0.0006286742330508758</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>лк</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.001100</t>
-        </is>
+      <c r="X12" t="n">
+        <v>0.001100179907839033</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>мя</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.000719</t>
-        </is>
+      <c r="Z12" t="n">
+        <v>0.0007189625537549909</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>нь</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.001083</t>
-        </is>
+      <c r="AB12" t="n">
+        <v>0.001083459848449382</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
           <t>ой</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.004374</t>
-        </is>
+      <c r="AD12" t="n">
+        <v>0.004373967536332689</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.000204</t>
-        </is>
+      <c r="AF12" t="n">
+        <v>0.0002039847245537416</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
           <t>рь</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0.000712</t>
-        </is>
+      <c r="AH12" t="n">
+        <v>0.0007122745299991306</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>св</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0.001996</t>
-        </is>
+      <c r="AJ12" t="n">
+        <v>0.001996375091124324</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
           <t>тс</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0.001495</t>
-        </is>
+      <c r="AL12" t="n">
+        <v>0.001494773309434795</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>ур</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0.001297</t>
-        </is>
+      <c r="AN12" t="n">
+        <v>0.001297476608636914</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
           <t>фф</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AP12" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
           <t>хр</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0.000274</t>
-        </is>
+      <c r="AR12" t="n">
+        <v>0.0002742089739902756</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
           <t>цк</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>0.000033</t>
-        </is>
+      <c r="AT12" t="n">
+        <v>3.34401187793019e-05</v>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
           <t>чв</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="AV12" t="n">
+        <v>7.691227319239438e-05</v>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
           <t>шв</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>0.000097</t>
-        </is>
+      <c r="AX12" t="n">
+        <v>9.697634445997552e-05</v>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
           <t>щд</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AZ12" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
           <t>ыш</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
-        <is>
-          <t>0.000589</t>
-        </is>
+      <c r="BB12" t="n">
+        <v>0.0005885460905157135</v>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
           <t>ья</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>0.000589</t>
-        </is>
+      <c r="BD12" t="n">
+        <v>0.0005885460905157135</v>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>эу</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF12" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
           <t>юи</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>0.000214</t>
-        </is>
+      <c r="BH12" t="n">
+        <v>0.0002140167601875322</v>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
           <t>яз</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>0.000615</t>
-        </is>
+      <c r="BJ12" t="n">
+        <v>0.000615298185539155</v>
       </c>
     </row>
     <row r="13">
@@ -4171,310 +3489,248 @@
           <t>ая</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.002762</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0.002762153811170337</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>бк</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0.0001672005938965095</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.000956</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0.0009563873970880345</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>гс</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="H13" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>дл</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.000565</t>
-        </is>
+      <c r="J13" t="n">
+        <v>0.0005651380073702022</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>ез</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.002374</t>
-        </is>
+      <c r="L13" t="n">
+        <v>0.002374248433330435</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>жч</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="N13" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>зм</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.000338</t>
-        </is>
+      <c r="P13" t="n">
+        <v>0.0003377451996709492</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>ие</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.002150</t>
-        </is>
+      <c r="R13" t="n">
+        <v>0.002150199637509113</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>йг</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="T13" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
           <t>кп</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.000445</t>
-        </is>
+      <c r="V13" t="n">
+        <v>0.0004447535797647153</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>лп</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.001080</t>
-        </is>
+      <c r="X13" t="n">
+        <v>0.001080115836571451</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>мк</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.000635</t>
-        </is>
+      <c r="Z13" t="n">
+        <v>0.0006353622568067361</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>нс</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0.000910</t>
-        </is>
+      <c r="AB13" t="n">
+        <v>0.0009095712307970118</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>ок</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>0.004207</t>
-        </is>
+      <c r="AD13" t="n">
+        <v>0.004206766942436179</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
           <t>пь</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0.000127</t>
-        </is>
+      <c r="AF13" t="n">
+        <v>0.0001270724513613472</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>рв</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0.000706</t>
-        </is>
+      <c r="AH13" t="n">
+        <v>0.0007055865062432702</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
           <t>сн</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>0.001455</t>
-        </is>
+      <c r="AJ13" t="n">
+        <v>0.001454645166899633</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
           <t>тк</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0.001267</t>
-        </is>
+      <c r="AL13" t="n">
+        <v>0.001267380501735542</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
           <t>уг</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>0.001261</t>
-        </is>
+      <c r="AN13" t="n">
+        <v>0.001260692477979682</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
           <t>фь</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AP13" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>хм</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="AR13" t="n">
+        <v>0.0001906086770420209</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
           <t>цп</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="AT13" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
           <t>чш</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="AV13" t="n">
+        <v>7.356826131446419e-05</v>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
           <t>шп</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="AX13" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
           <t>щп</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AZ13" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
           <t>ыб</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>0.000472</t>
-        </is>
+      <c r="BB13" t="n">
+        <v>0.0004715056747881568</v>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
           <t>ьч</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>0.000562</t>
-        </is>
+      <c r="BD13" t="n">
+        <v>0.0005617939954922719</v>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>эп</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF13" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
           <t>юр</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>0.000187</t>
-        </is>
+      <c r="BH13" t="n">
+        <v>0.0001872646651640907</v>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
           <t>яо</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>0.000592</t>
-        </is>
+      <c r="BJ13" t="n">
+        <v>0.0005918901023936437</v>
       </c>
     </row>
     <row r="14">
@@ -4483,280 +3739,224 @@
           <t>аи</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.001859</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0.001859270604129186</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>бщ</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.000157</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.0001571685582627189</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>вл</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.000920</t>
-        </is>
+      <c r="F14" t="n">
+        <v>0.0009196032664308024</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>гв</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="H14" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>дк</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.000508</t>
-        </is>
+      <c r="J14" t="n">
+        <v>0.000508289805445389</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>ей</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.002204</t>
-        </is>
+      <c r="L14" t="n">
+        <v>0.002203703827555996</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>жь</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="N14" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>зг</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.000328</t>
-        </is>
+      <c r="P14" t="n">
+        <v>0.0003277131640371587</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>ий</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.001950</t>
-        </is>
+      <c r="R14" t="n">
+        <v>0.001949558924833301</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>йр</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.000348</t>
-        </is>
+      <c r="T14" t="n">
+        <v>0.0003477772353047398</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
           <t>кб</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="V14" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>лы</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.000986</t>
-        </is>
+      <c r="X14" t="n">
+        <v>0.0009864835039894062</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>мч</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0.000535</t>
-        </is>
+      <c r="Z14" t="n">
+        <v>0.0005350419004688305</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>нп</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0.000518</t>
-        </is>
+      <c r="AB14" t="n">
+        <v>0.0005183218410791795</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>оп</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0.004116</t>
-        </is>
+      <c r="AD14" t="n">
+        <v>0.004116478621732064</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
           <t>пк</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="AF14" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
           <t>рк</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0.000582</t>
-        </is>
+      <c r="AH14" t="n">
+        <v>0.0005818580667598532</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>сс</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.001351</t>
-        </is>
+      <c r="AJ14" t="n">
+        <v>0.001350980798683797</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
           <t>тп</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>0.000709</t>
-        </is>
+      <c r="AL14" t="n">
+        <v>0.0007089305181212003</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
           <t>ую</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>0.001177</t>
-        </is>
+      <c r="AN14" t="n">
+        <v>0.001177092181031427</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
           <t>фн</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AP14" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
           <t>хт</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="AR14" t="n">
+        <v>0.0001672005938965095</v>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>цд</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="AT14" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
           <t>чп</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="AV14" t="n">
+        <v>6.688023755860381e-05</v>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
           <t>шм</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AX14" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
           <t>щс</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AZ14" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
           <t>ык</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="BB14" t="n">
+        <v>0.0004414095678867852</v>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
           <t>ьд</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>0.000482</t>
-        </is>
+      <c r="BD14" t="n">
+        <v>0.0004815377104219474</v>
       </c>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
@@ -4765,20 +3965,16 @@
           <t>юм</t>
         </is>
       </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="BH14" t="n">
+        <v>0.0001738886176523699</v>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
           <t>яч</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>0.000488</t>
-        </is>
+      <c r="BJ14" t="n">
+        <v>0.0004882257341778078</v>
       </c>
     </row>
     <row r="15">
@@ -4787,250 +3983,200 @@
           <t>ае</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.001642</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0.001641909832063723</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>бс</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="D15" t="n">
+        <v>0.0001237284394834171</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>ву</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.000906</t>
-        </is>
+      <c r="F15" t="n">
+        <v>0.0009062272189190815</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>гз</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="H15" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>дя</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.000458</t>
-        </is>
+      <c r="J15" t="n">
+        <v>0.0004581296272764361</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>еб</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.001940</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0.00193952688919951</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>жм</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="N15" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>зк</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.000318</t>
-        </is>
+      <c r="P15" t="n">
+        <v>0.0003176811284033681</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>их</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.001843</t>
-        </is>
+      <c r="R15" t="n">
+        <v>0.001842550544739535</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>йб</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.000331</t>
-        </is>
+      <c r="T15" t="n">
+        <v>0.0003310571759150889</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
           <t>кк</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="V15" t="n">
+        <v>0.000334401187793019</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>лю</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.000813</t>
-        </is>
+      <c r="X15" t="n">
+        <v>0.0008125948863370362</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>мг</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.000482</t>
-        </is>
+      <c r="Z15" t="n">
+        <v>0.0004815377104219474</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>нк</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0.000485</t>
-        </is>
+      <c r="AB15" t="n">
+        <v>0.0004848817222998776</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>оч</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>0.002949</t>
-        </is>
+      <c r="AD15" t="n">
+        <v>0.002949418476334428</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
           <t>пп</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="AF15" t="n">
+        <v>6.688023755860381e-05</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>рш</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0.000552</t>
-        </is>
+      <c r="AH15" t="n">
+        <v>0.0005517619598584814</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>су</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>0.001043</t>
-        </is>
+      <c r="AJ15" t="n">
+        <v>0.001043331705914219</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
           <t>тч</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>0.000652</t>
-        </is>
+      <c r="AL15" t="n">
+        <v>0.0006520823161963871</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
           <t>уч</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>0.001177</t>
-        </is>
+      <c r="AN15" t="n">
+        <v>0.001177092181031427</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
           <t>фв</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AP15" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>хб</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="AR15" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
           <t>цб</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AT15" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
           <t>чл</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>0.000060</t>
-        </is>
+      <c r="AV15" t="n">
+        <v>6.019221380274343e-05</v>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
           <t>шд</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AX15" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -5039,20 +4185,16 @@
           <t>ыр</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="BB15" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
           <t>ьз</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="BD15" t="n">
+        <v>0.0004414095678867852</v>
       </c>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
@@ -5061,20 +4203,16 @@
           <t>юо</t>
         </is>
       </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>0.000157</t>
-        </is>
+      <c r="BH15" t="n">
+        <v>0.0001571685582627189</v>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
           <t>яг</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>0.000488</t>
-        </is>
+      <c r="BJ15" t="n">
+        <v>0.0004882257341778078</v>
       </c>
     </row>
     <row r="16">
@@ -5083,250 +4221,200 @@
           <t>аг</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.001632</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0.001631877796429933</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>бм</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="D16" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>вз</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.000655</t>
-        </is>
+      <c r="F16" t="n">
+        <v>0.0006554263280743174</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>гч</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="H16" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>дт</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.000338</t>
-        </is>
+      <c r="J16" t="n">
+        <v>0.0003377451996709492</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>еч</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.001769</t>
-        </is>
+      <c r="L16" t="n">
+        <v>0.001768982283425071</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>жэ</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="N16" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>зп</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.000261</t>
-        </is>
+      <c r="P16" t="n">
+        <v>0.0002608329264785549</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>ио</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.001736</t>
-        </is>
+      <c r="R16" t="n">
+        <v>0.001735542164645769</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>йш</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.000314</t>
-        </is>
+      <c r="T16" t="n">
+        <v>0.0003143371165254379</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>кч</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="V16" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>лт</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.000579</t>
-        </is>
+      <c r="X16" t="n">
+        <v>0.0005785140548819229</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>мл</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="Z16" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>нц</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>0.000375</t>
-        </is>
+      <c r="AB16" t="n">
+        <v>0.0003745293303281813</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>оз</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>0.002568</t>
-        </is>
+      <c r="AD16" t="n">
+        <v>0.002568201122250386</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
           <t>пс</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="AF16" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
           <t>рд</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0.000375</t>
-        </is>
+      <c r="AH16" t="n">
+        <v>0.0003745293303281813</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>см</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>0.000826</t>
-        </is>
+      <c r="AJ16" t="n">
+        <v>0.000825970933848757</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
           <t>тя</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>0.000589</t>
-        </is>
+      <c r="AL16" t="n">
+        <v>0.0005885460905157135</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>уб</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>0.001047</t>
-        </is>
+      <c r="AN16" t="n">
+        <v>0.00104667571779215</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
           <t>фж</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP16" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
           <t>хг</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="AR16" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
           <t>цл</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AT16" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
           <t>чс</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="AV16" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
           <t>шр</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AX16" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -5335,20 +4423,16 @@
           <t>ыи</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr">
-        <is>
-          <t>0.000364</t>
-        </is>
+      <c r="BB16" t="n">
+        <v>0.0003644972946943908</v>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
           <t>ьш</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>0.000415</t>
-        </is>
+      <c r="BD16" t="n">
+        <v>0.0004146574728633436</v>
       </c>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
@@ -5357,20 +4441,16 @@
           <t>юг</t>
         </is>
       </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>0.000134</t>
-        </is>
+      <c r="BH16" t="n">
+        <v>0.0001337604751172076</v>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
           <t>яб</t>
         </is>
       </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>0.000448</t>
-        </is>
+      <c r="BJ16" t="n">
+        <v>0.0004480975916426455</v>
       </c>
     </row>
     <row r="17">
@@ -5379,250 +4459,200 @@
           <t>ач</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.001582</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0.00158171761826098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>бв</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="D17" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>вь</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.000625</t>
-        </is>
+      <c r="F17" t="n">
+        <v>0.0006253302211729456</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>гт</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="H17" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>дц</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="J17" t="n">
+        <v>0.0002474568789668341</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>ее</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.001746</t>
-        </is>
+      <c r="L17" t="n">
+        <v>0.001745574200279559</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>жв</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="N17" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>зб</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="P17" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>ир</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.001722</t>
-        </is>
+      <c r="R17" t="n">
+        <v>0.001722166117134048</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>йз</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.000264</t>
-        </is>
+      <c r="T17" t="n">
+        <v>0.000264176938356485</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="V17" t="n">
+        <v>0.0001906086770420209</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>лл</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.000565</t>
-        </is>
+      <c r="X17" t="n">
+        <v>0.0005651380073702022</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>мб</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.000381</t>
-        </is>
+      <c r="Z17" t="n">
+        <v>0.0003812173540840417</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>нв</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0.000364</t>
-        </is>
+      <c r="AB17" t="n">
+        <v>0.0003644972946943908</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>ое</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>0.002398</t>
-        </is>
+      <c r="AD17" t="n">
+        <v>0.002397656516475946</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
           <t>пю</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="AF17" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
           <t>рл</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0.000338</t>
-        </is>
+      <c r="AH17" t="n">
+        <v>0.0003377451996709492</v>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
           <t>сч</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.000415</t>
-        </is>
+      <c r="AJ17" t="n">
+        <v>0.0004146574728633436</v>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>тл</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0.000435</t>
-        </is>
+      <c r="AL17" t="n">
+        <v>0.0004347215441309247</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>ух</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>0.001023</t>
-        </is>
+      <c r="AN17" t="n">
+        <v>0.001023267634646638</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
           <t>фп</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP17" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
           <t>хд</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>0.000140</t>
-        </is>
+      <c r="AR17" t="n">
+        <v>0.000140448498873068</v>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
           <t>цт</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AT17" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
           <t>чз</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="AV17" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
           <t>шх</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AX17" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5631,20 +4661,16 @@
           <t>ыч</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>0.000281</t>
-        </is>
+      <c r="BB17" t="n">
+        <v>0.000280896997746136</v>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
           <t>ьб</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>0.000395</t>
-        </is>
+      <c r="BD17" t="n">
+        <v>0.0003945934015957624</v>
       </c>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
@@ -5653,20 +4679,16 @@
           <t>юл</t>
         </is>
       </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BH17" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
           <t>ящ</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>0.000435</t>
-        </is>
+      <c r="BJ17" t="n">
+        <v>0.0004347215441309247</v>
       </c>
     </row>
     <row r="18">
@@ -5675,250 +4697,200 @@
           <t>аж</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.001575</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0.00157502959450512</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>бэ</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="D18" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>вд</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.000602</t>
-        </is>
+      <c r="F18" t="n">
+        <v>0.0006019221380274343</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>гб</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="H18" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>дп</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="J18" t="n">
+        <v>0.0002474568789668341</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>еи</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.001461</t>
-        </is>
+      <c r="L18" t="n">
+        <v>0.001461333190655493</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>жг</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="N18" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>зя</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="P18" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>ии</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.001705</t>
-        </is>
+      <c r="R18" t="n">
+        <v>0.001705446057744397</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>йу</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.000214</t>
-        </is>
+      <c r="T18" t="n">
+        <v>0.0002140167601875322</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
           <t>кж</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="V18" t="n">
+        <v>0.0001738886176523699</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>лч</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.000545</t>
-        </is>
+      <c r="X18" t="n">
+        <v>0.0005450739361026211</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>мт</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0.000358</t>
-        </is>
+      <c r="Z18" t="n">
+        <v>0.0003578092709385303</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>нч</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>0.000294</t>
-        </is>
+      <c r="AB18" t="n">
+        <v>0.0002942730452578568</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>ож</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>0.002267</t>
-        </is>
+      <c r="AD18" t="n">
+        <v>0.002267240053236669</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
           <t>пш</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="AF18" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
           <t>рс</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0.000314</t>
-        </is>
+      <c r="AH18" t="n">
+        <v>0.0003143371165254379</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
           <t>сы</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>0.000398</t>
-        </is>
+      <c r="AJ18" t="n">
+        <v>0.0003979374134736927</v>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
           <t>тд</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="AL18" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>уи</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>0.000833</t>
-        </is>
+      <c r="AN18" t="n">
+        <v>0.0008326589576046175</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
           <t>фч</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP18" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
           <t>хе</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="AR18" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
           <t>цз</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AT18" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
           <t>чб</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="AV18" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
           <t>шс</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AX18" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5927,20 +4899,16 @@
           <t>ыо</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>0.000241</t>
-        </is>
+      <c r="BB18" t="n">
+        <v>0.0002407688552109737</v>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
           <t>ью</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>0.000354</t>
-        </is>
+      <c r="BD18" t="n">
+        <v>0.0003544652590606002</v>
       </c>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
@@ -5949,20 +4917,16 @@
           <t>юа</t>
         </is>
       </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BH18" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
           <t>яу</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>0.000298</t>
-        </is>
+      <c r="BJ18" t="n">
+        <v>0.000297617057135787</v>
       </c>
     </row>
     <row r="19">
@@ -5971,250 +4935,200 @@
           <t>ах</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.001478</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0.001478053250045144</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>бх</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.000043</t>
-        </is>
+      <c r="D19" t="n">
+        <v>4.347215441309247e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>вв</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.000585</t>
-        </is>
+      <c r="F19" t="n">
+        <v>0.0005852020786377833</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>гм</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="H19" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>дм</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.000244</t>
-        </is>
+      <c r="J19" t="n">
+        <v>0.0002441128670889039</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>ео</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.001374</t>
-        </is>
+      <c r="L19" t="n">
+        <v>0.001374388881829308</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>жп</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="N19" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>зс</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.000204</t>
-        </is>
+      <c r="P19" t="n">
+        <v>0.0002039847245537416</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>иб</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.001411</t>
-        </is>
+      <c r="R19" t="n">
+        <v>0.00141117301248654</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>йл</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="T19" t="n">
+        <v>0.000210672748309602</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
           <t>кд</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.000127</t>
-        </is>
+      <c r="V19" t="n">
+        <v>0.0001270724513613472</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>лб</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.000492</t>
-        </is>
+      <c r="X19" t="n">
+        <v>0.000491569746055738</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
           <t>мд</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.000344</t>
-        </is>
+      <c r="Z19" t="n">
+        <v>0.0003444332234268096</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>нщ</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>0.000221</t>
-        </is>
+      <c r="AB19" t="n">
+        <v>0.0002207047839433926</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
           <t>ои</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>0.002214</t>
-        </is>
+      <c r="AD19" t="n">
+        <v>0.002213735863189786</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
           <t>пч</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="AF19" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
           <t>рю</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>0.000304</t>
-        </is>
+      <c r="AH19" t="n">
+        <v>0.0003043050808916473</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
           <t>сд</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>0.000388</t>
-        </is>
+      <c r="AJ19" t="n">
+        <v>0.0003879053778399021</v>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
           <t>тт</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="AL19" t="n">
+        <v>0.000334401187793019</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
           <t>уш</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>0.000819</t>
-        </is>
+      <c r="AN19" t="n">
+        <v>0.0008192829100928966</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
           <t>фя</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP19" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
           <t>хч</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AR19" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
           <t>цм</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AT19" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
           <t>чг</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="AV19" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
           <t>шз</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX19" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -6223,20 +5137,16 @@
           <t>ыз</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="BB19" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
           <t>ьг</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>0.000304</t>
-        </is>
+      <c r="BD19" t="n">
+        <v>0.0003043050808916473</v>
       </c>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
@@ -6245,20 +5155,16 @@
           <t>юз</t>
         </is>
       </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>0.000084</t>
-        </is>
+      <c r="BH19" t="n">
+        <v>8.360029694825476e-05</v>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
           <t>яр</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>0.000298</t>
-        </is>
+      <c r="BJ19" t="n">
+        <v>0.000297617057135787</v>
       </c>
     </row>
     <row r="20">
@@ -6267,250 +5173,200 @@
           <t>аб</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.001415</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0.001414517024364471</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>бг</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.000023</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2.340808314551133e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>вм</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.000468</t>
-        </is>
+      <c r="F20" t="n">
+        <v>0.0004681616629102266</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>гэ</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>дш</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.000194</t>
-        </is>
+      <c r="J20" t="n">
+        <v>0.000193952688919951</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>еж</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.001057</t>
-        </is>
+      <c r="L20" t="n">
+        <v>0.00105670775342594</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>жя</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="N20" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>зз</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="P20" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>ия</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.001408</t>
-        </is>
+      <c r="R20" t="n">
+        <v>0.00140782900060861</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>йа</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.000184</t>
-        </is>
+      <c r="T20" t="n">
+        <v>0.0001839206532861605</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
           <t>кз</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.000120</t>
-        </is>
+      <c r="V20" t="n">
+        <v>0.0001203844276054869</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>лм</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.000411</t>
-        </is>
+      <c r="X20" t="n">
+        <v>0.0004113134609854134</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>мм</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.000324</t>
-        </is>
+      <c r="Z20" t="n">
+        <v>0.0003243691521592285</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>нб</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>0.000221</t>
-        </is>
+      <c r="AB20" t="n">
+        <v>0.0002207047839433926</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
           <t>оо</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>0.002080</t>
-        </is>
+      <c r="AD20" t="n">
+        <v>0.002079975388072578</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
           <t>пв</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AF20" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>рп</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>0.000294</t>
-        </is>
+      <c r="AH20" t="n">
+        <v>0.0002942730452578568</v>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>0.000298</t>
-        </is>
+      <c r="AJ20" t="n">
+        <v>0.000297617057135787</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
           <t>тб</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>0.000304</t>
-        </is>
+      <c r="AL20" t="n">
+        <v>0.0003043050808916473</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
           <t>уз</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>0.000512</t>
-        </is>
+      <c r="AN20" t="n">
+        <v>0.0005116338173233191</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
           <t>фб</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP20" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
           <t>хз</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AR20" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
           <t>ця</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AT20" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
           <t>чд</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AV20" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
           <t>шг</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX20" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6519,20 +5375,16 @@
           <t>ыд</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="BB20" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
           <t>ьу</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
-        <is>
-          <t>0.000241</t>
-        </is>
+      <c r="BD20" t="n">
+        <v>0.0002407688552109737</v>
       </c>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
@@ -6541,20 +5393,16 @@
           <t>юш</t>
         </is>
       </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="BH20" t="n">
+        <v>7.691227319239438e-05</v>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
           <t>яж</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>0.000251</t>
-        </is>
+      <c r="BJ20" t="n">
+        <v>0.0002508008908447643</v>
       </c>
     </row>
     <row r="21">
@@ -6563,200 +5411,160 @@
           <t>ао</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.001170</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0.001170404157275567</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>бж</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>вг</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.000408</t>
-        </is>
+      <c r="F21" t="n">
+        <v>0.0004079694491074832</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>гх</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="H21" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>дч</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="J21" t="n">
+        <v>0.0001237284394834171</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>еш</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.000953</t>
-        </is>
+      <c r="L21" t="n">
+        <v>0.0009530433852101043</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>жт</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="N21" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>зь</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.000134</t>
-        </is>
+      <c r="P21" t="n">
+        <v>0.0001337604751172076</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
           <t>иц</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.001134</t>
-        </is>
+      <c r="R21" t="n">
+        <v>0.001133620026618335</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>йж</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="T21" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
           <t>кэ</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="V21" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>лг</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.000381</t>
-        </is>
+      <c r="X21" t="n">
+        <v>0.0003812173540840417</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
           <t>мр</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.000304</t>
-        </is>
+      <c r="Z21" t="n">
+        <v>0.0003043050808916473</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>нз</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>0.000207</t>
-        </is>
+      <c r="AB21" t="n">
+        <v>0.0002073287364316718</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
           <t>ош</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>0.001010</t>
-        </is>
+      <c r="AD21" t="n">
+        <v>0.001009891587134917</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
           <t>пц</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AF21" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
           <t>рм</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>0.000278</t>
-        </is>
+      <c r="AH21" t="n">
+        <v>0.0002775529858682058</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>0.000264</t>
-        </is>
+      <c r="AJ21" t="n">
+        <v>0.000264176938356485</v>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
           <t>тм</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>0.000274</t>
-        </is>
+      <c r="AL21" t="n">
+        <v>0.0002742089739902756</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
           <t>уо</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>0.000428</t>
-        </is>
+      <c r="AN21" t="n">
+        <v>0.0004280335203750644</v>
       </c>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
@@ -6765,40 +5573,32 @@
           <t>хш</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="AR21" t="n">
+        <v>7.356826131446419e-05</v>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
           <t>цц</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AT21" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
           <t>чэ</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AV21" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
           <t>шч</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX21" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6807,20 +5607,16 @@
           <t>ыг</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr">
-        <is>
-          <t>0.000231</t>
-        </is>
+      <c r="BB21" t="n">
+        <v>0.0002307368195771831</v>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
           <t>ьр</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="BD21" t="n">
+        <v>0.000210672748309602</v>
       </c>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
@@ -6829,20 +5625,16 @@
           <t>юю</t>
         </is>
       </c>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="BH21" t="n">
+        <v>7.022424943653399e-05</v>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
           <t>яе</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="BJ21" t="n">
+        <v>0.0002474568789668341</v>
       </c>
     </row>
     <row r="22">
@@ -6851,200 +5643,160 @@
           <t>аш</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.001023</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0.001023267634646638</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>бп</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>вя</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.000395</t>
-        </is>
+      <c r="F22" t="n">
+        <v>0.0003945934015957624</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>гг</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="H22" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>дб</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.000107</t>
-        </is>
+      <c r="J22" t="n">
+        <v>0.0001070083800937661</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>еу</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.000749</t>
-        </is>
+      <c r="L22" t="n">
+        <v>0.0007490586606563627</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>жж</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="N22" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>зж</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="P22" t="n">
+        <v>0.0001237284394834171</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>иг</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.001134</t>
-        </is>
+      <c r="R22" t="n">
+        <v>0.001133620026618335</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>йц</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.000137</t>
-        </is>
+      <c r="T22" t="n">
+        <v>0.0001371044869951378</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
           <t>кг</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="V22" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>лд</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0.000321</t>
-        </is>
+      <c r="X22" t="n">
+        <v>0.0003210251402812983</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
           <t>мз</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.000288</t>
-        </is>
+      <c r="Z22" t="n">
+        <v>0.0002875850215019964</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>нг</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="AB22" t="n">
+        <v>0.0001906086770420209</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
           <t>оя</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>0.000980</t>
-        </is>
+      <c r="AD22" t="n">
+        <v>0.0009797954802335457</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
           <t>пз</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AF22" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
           <t>рч</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>0.000271</t>
-        </is>
+      <c r="AH22" t="n">
+        <v>0.0002708649621123454</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
           <t>сх</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.000204</t>
-        </is>
+      <c r="AJ22" t="n">
+        <v>0.0002039847245537416</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
           <t>тз</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>0.000187</t>
-        </is>
+      <c r="AL22" t="n">
+        <v>0.0001872646651640907</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
           <t>уа</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>0.000338</t>
-        </is>
+      <c r="AN22" t="n">
+        <v>0.0003377451996709492</v>
       </c>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
@@ -7053,30 +5805,24 @@
           <t>хэ</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="AR22" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
           <t>цч</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AT22" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
           <t>чя</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV22" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
@@ -7087,20 +5833,16 @@
           <t>ыу</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>0.000147</t>
-        </is>
+      <c r="BB22" t="n">
+        <v>0.0001471365226289284</v>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
           <t>ьа</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>0.000187</t>
-        </is>
+      <c r="BD22" t="n">
+        <v>0.0001872646651640907</v>
       </c>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
@@ -7109,20 +5851,16 @@
           <t>юу</t>
         </is>
       </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="BH22" t="n">
+        <v>7.022424943653399e-05</v>
       </c>
       <c r="BI22" t="inlineStr">
         <is>
           <t>яя</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="BJ22" t="n">
+        <v>0.0002340808314551133</v>
       </c>
     </row>
     <row r="23">
@@ -7131,200 +5869,160 @@
           <t>аю</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.000933</t>
-        </is>
+      <c r="B23" t="n">
+        <v>0.0009329793139425231</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>бч</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>вч</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.000378</t>
-        </is>
+      <c r="F23" t="n">
+        <v>0.0003778733422061115</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>гя</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="H23" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>дз</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="J23" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>ещ</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0.000682</t>
-        </is>
+      <c r="L23" t="n">
+        <v>0.0006821784230977588</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>жр</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="N23" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>зт</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="P23" t="n">
+        <v>7.022424943653399e-05</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
           <t>иш</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.000722</t>
-        </is>
+      <c r="R23" t="n">
+        <v>0.0007223065656329212</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>йя</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="T23" t="n">
+        <v>0.0001170404157275567</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>кх</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="V23" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>лр</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.000251</t>
-        </is>
+      <c r="X23" t="n">
+        <v>0.0002508008908447643</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>мэ</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0.000120</t>
-        </is>
+      <c r="Z23" t="n">
+        <v>0.0001203844276054869</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>ню</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>0.000187</t>
-        </is>
+      <c r="AB23" t="n">
+        <v>0.0001872646651640907</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>ох</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>0.000779</t>
-        </is>
+      <c r="AD23" t="n">
+        <v>0.0007791547675577344</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
           <t>пб</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AF23" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
           <t>рж</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>0.000244</t>
-        </is>
+      <c r="AH23" t="n">
+        <v>0.0002441128670889039</v>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
           <t>сш</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>0.000197</t>
-        </is>
+      <c r="AJ23" t="n">
+        <v>0.0001972967007978812</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
           <t>тг</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>0.000177</t>
-        </is>
+      <c r="AL23" t="n">
+        <v>0.0001772326295303001</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
           <t>уе</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>0.000308</t>
-        </is>
+      <c r="AN23" t="n">
+        <v>0.0003076490927695775</v>
       </c>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
@@ -7333,30 +6031,24 @@
           <t>хж</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>0.000033</t>
-        </is>
+      <c r="AR23" t="n">
+        <v>3.34401187793019e-05</v>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
           <t>цх</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT23" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
           <t>чм</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV23" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
@@ -7367,20 +6059,16 @@
           <t>ыж</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>0.000130</t>
-        </is>
+      <c r="BB23" t="n">
+        <v>0.0001304164632392774</v>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
           <t>ьл</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="BD23" t="n">
+        <v>0.0001672005938965095</v>
       </c>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
@@ -7389,20 +6077,16 @@
           <t>юх</t>
         </is>
       </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="BH23" t="n">
+        <v>6.688023755860381e-05</v>
       </c>
       <c r="BI23" t="inlineStr">
         <is>
           <t>ях</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>0.000217</t>
-        </is>
+      <c r="BJ23" t="n">
+        <v>0.0002173607720654624</v>
       </c>
     </row>
     <row r="24">
@@ -7411,30 +6095,24 @@
           <t>ай</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.000686</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0.0006855224349756891</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>бт</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>вэ</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.000334</t>
-        </is>
+      <c r="F24" t="n">
+        <v>0.000334401187793019</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -7443,160 +6121,128 @@
           <t>дг</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="J24" t="n">
+        <v>8.694430882618495e-05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>ех</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0.000649</t>
-        </is>
+      <c r="L24" t="n">
+        <v>0.000648738304318457</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>жз</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="N24" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>зч</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="P24" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>иу</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.000625</t>
-        </is>
+      <c r="R24" t="n">
+        <v>0.0006253302211729456</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>йе</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="T24" t="n">
+        <v>8.694430882618495e-05</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>кя</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="V24" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>лж</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0.000244</t>
-        </is>
+      <c r="X24" t="n">
+        <v>0.0002441128670889039</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>мх</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>0.000094</t>
-        </is>
+      <c r="Z24" t="n">
+        <v>9.363233258204533e-05</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>нр</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>0.000134</t>
-        </is>
+      <c r="AB24" t="n">
+        <v>0.0001337604751172076</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
           <t>оу</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>0.000776</t>
-        </is>
+      <c r="AD24" t="n">
+        <v>0.0007758107556798041</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
           <t>пг</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AF24" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
           <t>рх</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="AH24" t="n">
+        <v>0.0002273928076992529</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
           <t>сг</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>0.000181</t>
-        </is>
+      <c r="AJ24" t="n">
+        <v>0.0001805766414082303</v>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
           <t>тэ</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="AL24" t="n">
+        <v>0.0001672005938965095</v>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
           <t>ущ</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>0.000264</t>
-        </is>
+      <c r="AN24" t="n">
+        <v>0.000264176938356485</v>
       </c>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
@@ -7605,30 +6251,24 @@
           <t>хх</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="AR24" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
           <t>цэ</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT24" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
           <t>чж</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV24" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
@@ -7639,20 +6279,16 @@
           <t>ыа</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="BB24" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="BC24" t="inlineStr">
         <is>
           <t>ьэ</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
-        <is>
-          <t>0.000154</t>
-        </is>
+      <c r="BD24" t="n">
+        <v>0.0001538245463847888</v>
       </c>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
@@ -7661,20 +6297,16 @@
           <t>юж</t>
         </is>
       </c>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="BH24" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="BI24" t="inlineStr">
         <is>
           <t>яа</t>
         </is>
       </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>0.000214</t>
-        </is>
+      <c r="BJ24" t="n">
+        <v>0.0002140167601875322</v>
       </c>
     </row>
     <row r="25">
@@ -7683,30 +6315,24 @@
           <t>ау</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.000665</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0.0006654583637081079</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>бб</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>вб</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.000301</t>
-        </is>
+      <c r="F25" t="n">
+        <v>0.0003009610690137171</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -7715,110 +6341,88 @@
           <t>дд</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="J25" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>ея</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0.000435</t>
-        </is>
+      <c r="L25" t="n">
+        <v>0.0004347215441309247</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>жх</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="N25" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>зэ</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="P25" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
           <t>иа</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.000468</t>
-        </is>
+      <c r="R25" t="n">
+        <v>0.0004681616629102266</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>йэ</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="T25" t="n">
+        <v>8.694430882618495e-05</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
           <t>кш</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="V25" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
           <t>лз</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="X25" t="n">
+        <v>0.0002273928076992529</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
           <t>мж</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="Z25" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>нм</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="AB25" t="n">
+        <v>0.0001237284394834171</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
           <t>оэ</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>0.000572</t>
-        </is>
+      <c r="AD25" t="n">
+        <v>0.0005718260311260626</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
@@ -7827,40 +6431,32 @@
           <t>рб</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>0.000127</t>
-        </is>
+      <c r="AH25" t="n">
+        <v>0.0001270724513613472</v>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
           <t>сз</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>0.000130</t>
-        </is>
+      <c r="AJ25" t="n">
+        <v>0.0001304164632392774</v>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
           <t>тж</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>0.000164</t>
-        </is>
+      <c r="AL25" t="n">
+        <v>0.0001638565820185793</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
           <t>уф</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>0.000261</t>
-        </is>
+      <c r="AN25" t="n">
+        <v>0.0002608329264785549</v>
       </c>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
@@ -7869,10 +6465,8 @@
           <t>хя</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="AR25" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
@@ -7887,20 +6481,16 @@
           <t>ыя</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="BB25" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
       <c r="BC25" t="inlineStr">
         <is>
           <t>ьц</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="BD25" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
@@ -7909,20 +6499,16 @@
           <t>юц</t>
         </is>
       </c>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="BH25" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="BI25" t="inlineStr">
         <is>
           <t>яю</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr">
-        <is>
-          <t>0.000161</t>
-        </is>
+      <c r="BJ25" t="n">
+        <v>0.0001605125701406491</v>
       </c>
     </row>
     <row r="26">
@@ -7931,30 +6517,24 @@
           <t>аа</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.000445</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0.0004447535797647153</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>бш</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="D26" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>вц</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="F26" t="n">
+        <v>7.691227319239438e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -7963,20 +6543,16 @@
           <t>дх</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="J26" t="n">
+        <v>6.688023755860381e-05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>еа</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.000428</t>
-        </is>
+      <c r="L26" t="n">
+        <v>0.0004280335203750644</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -7985,80 +6561,64 @@
           <t>зш</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="P26" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
           <t>иж</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.000408</t>
-        </is>
+      <c r="R26" t="n">
+        <v>0.0004079694491074832</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>йх</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="T26" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
           <t>кц</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="V26" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
           <t>лэ</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="X26" t="n">
+        <v>7.022424943653399e-05</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
           <t>мш</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>0.000060</t>
-        </is>
+      <c r="Z26" t="n">
+        <v>6.019221380274343e-05</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>нф</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>0.000100</t>
-        </is>
+      <c r="AB26" t="n">
+        <v>0.0001003203563379057</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
           <t>оф</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>0.000502</t>
-        </is>
+      <c r="AD26" t="n">
+        <v>0.0005016017816895286</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
@@ -8067,40 +6627,32 @@
           <t>рр</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>0.000100</t>
-        </is>
+      <c r="AH26" t="n">
+        <v>0.0001003203563379057</v>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
           <t>сж</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>0.000120</t>
-        </is>
+      <c r="AJ26" t="n">
+        <v>0.0001203844276054869</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
           <t>тю</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>0.000104</t>
-        </is>
+      <c r="AL26" t="n">
+        <v>0.0001036643682158359</v>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
           <t>уу</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>0.000204</t>
-        </is>
+      <c r="AN26" t="n">
+        <v>0.0002039847245537416</v>
       </c>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
@@ -8109,10 +6661,8 @@
           <t>хф</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AR26" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -8127,20 +6677,16 @@
           <t>ыэ</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="BB26" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="BC26" t="inlineStr">
         <is>
           <t>ьх</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="BD26" t="n">
+        <v>7.691227319239438e-05</v>
       </c>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
@@ -8149,20 +6695,16 @@
           <t>юя</t>
         </is>
       </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="BH26" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="BI26" t="inlineStr">
         <is>
           <t>яэ</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>0.000157</t>
-        </is>
+      <c r="BJ26" t="n">
+        <v>0.0001571685582627189</v>
       </c>
     </row>
     <row r="27">
@@ -8171,30 +6713,24 @@
           <t>ащ</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.000435</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0.0004347215441309247</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>бд</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="D27" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>вх</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.000077</t>
-        </is>
+      <c r="F27" t="n">
+        <v>7.691227319239438e-05</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -8203,20 +6739,16 @@
           <t>дж</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="J27" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>ец</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0.000408</t>
-        </is>
+      <c r="L27" t="n">
+        <v>0.0004079694491074832</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -8225,80 +6757,64 @@
           <t>зц</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="P27" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>ию</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.000311</t>
-        </is>
+      <c r="R27" t="n">
+        <v>0.0003109931046475077</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>йф</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.000080</t>
-        </is>
+      <c r="T27" t="n">
+        <v>8.025628507032456e-05</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
           <t>кф</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="V27" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>лш</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="X27" t="n">
+        <v>7.022424943653399e-05</v>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
           <t>мь</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="Z27" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>нх</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="AB27" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
           <t>ою</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>0.000472</t>
-        </is>
+      <c r="AD27" t="n">
+        <v>0.0004715056747881568</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
@@ -8307,40 +6823,32 @@
           <t>рц</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AH27" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
           <t>сц</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="AJ27" t="n">
+        <v>0.0001170404157275567</v>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
           <t>тф</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AL27" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
           <t>уя</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>0.000167</t>
-        </is>
+      <c r="AN27" t="n">
+        <v>0.0001672005938965095</v>
       </c>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
@@ -8349,10 +6857,8 @@
           <t>хц</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AR27" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
@@ -8367,20 +6873,16 @@
           <t>ыц</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="BB27" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="BC27" t="inlineStr">
         <is>
           <t>ьф</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
-        <is>
-          <t>0.000043</t>
-        </is>
+      <c r="BD27" t="n">
+        <v>4.347215441309247e-05</v>
       </c>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="inlineStr"/>
@@ -8389,20 +6891,16 @@
           <t>юе</t>
         </is>
       </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="BH27" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
           <t>яш</t>
         </is>
       </c>
-      <c r="BJ27" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BJ27" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
     </row>
     <row r="28">
@@ -8411,30 +6909,24 @@
           <t>аэ</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.000385</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0.0003845613659619719</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>бю</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="D28" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>вж</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.000074</t>
-        </is>
+      <c r="F28" t="n">
+        <v>7.356826131446419e-05</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -8443,20 +6935,16 @@
           <t>дэ</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="J28" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>еэ</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0.000301</t>
-        </is>
+      <c r="L28" t="n">
+        <v>0.0003009610690137171</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -8465,80 +6953,64 @@
           <t>зх</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="P28" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
           <t>ищ</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.000261</t>
-        </is>
+      <c r="R28" t="n">
+        <v>0.0002608329264785549</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>йщ</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.000027</t>
-        </is>
+      <c r="T28" t="n">
+        <v>2.675209502344152e-05</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
           <t>кю</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="V28" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
           <t>лф</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="X28" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
           <t>мф</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="Z28" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>нж</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="AB28" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>оа</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>0.000331</t>
-        </is>
+      <c r="AD28" t="n">
+        <v>0.0003310571759150889</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
@@ -8547,40 +7019,32 @@
           <t>рз</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="AH28" t="n">
+        <v>6.688023755860381e-05</v>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
           <t>сю</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>0.000110</t>
-        </is>
+      <c r="AJ28" t="n">
+        <v>0.0001103523919716963</v>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
           <t>тх</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>0.000057</t>
-        </is>
+      <c r="AL28" t="n">
+        <v>5.684820192481324e-05</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
           <t>уй</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>0.000164</t>
-        </is>
+      <c r="AN28" t="n">
+        <v>0.0001638565820185793</v>
       </c>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
@@ -8589,10 +7053,8 @@
           <t>хь</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AR28" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
@@ -8607,20 +7069,16 @@
           <t>ыф</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BB28" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="BC28" t="inlineStr">
         <is>
           <t>ьж</t>
         </is>
       </c>
-      <c r="BD28" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="BD28" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="BE28" t="inlineStr"/>
       <c r="BF28" t="inlineStr"/>
@@ -8629,20 +7087,16 @@
           <t>юф</t>
         </is>
       </c>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>0.000030</t>
-        </is>
+      <c r="BH28" t="n">
+        <v>3.009610690137171e-05</v>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
           <t>яц</t>
         </is>
       </c>
-      <c r="BJ28" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BJ28" t="n">
+        <v>9.028832070411515e-05</v>
       </c>
     </row>
     <row r="29">
@@ -8651,30 +7105,24 @@
           <t>аф</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.000311</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0.0003109931046475077</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>бц</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="D29" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>вщ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="F29" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -8683,20 +7131,16 @@
           <t>дю</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="J29" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>еф</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.000234</t>
-        </is>
+      <c r="L29" t="n">
+        <v>0.0002340808314551133</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -8705,30 +7149,24 @@
           <t>зю</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="P29" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
           <t>иэ</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.000214</t>
-        </is>
+      <c r="R29" t="n">
+        <v>0.0002140167601875322</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>йю</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="T29" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -8737,40 +7175,32 @@
           <t>лх</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>0.000047</t>
-        </is>
+      <c r="X29" t="n">
+        <v>4.681616629102267e-05</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
           <t>мц</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="Z29" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>нл</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="AB29" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
           <t>ощ</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>0.000284</t>
-        </is>
+      <c r="AD29" t="n">
+        <v>0.0002842410096240662</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
@@ -8779,40 +7209,32 @@
           <t>рщ</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>0.000050</t>
-        </is>
+      <c r="AH29" t="n">
+        <v>5.016017816895286e-05</v>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
           <t>сэ</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>0.000054</t>
-        </is>
+      <c r="AJ29" t="n">
+        <v>5.350419004688304e-05</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
           <t>тш</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>0.000040</t>
-        </is>
+      <c r="AL29" t="n">
+        <v>4.012814253516228e-05</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
           <t>уэ</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>0.000117</t>
-        </is>
+      <c r="AN29" t="n">
+        <v>0.0001170404157275567</v>
       </c>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
@@ -8831,20 +7253,16 @@
           <t>ыщ</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="BB29" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="BC29" t="inlineStr">
         <is>
           <t>ьщ</t>
         </is>
       </c>
-      <c r="BD29" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BD29" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="BE29" t="inlineStr"/>
       <c r="BF29" t="inlineStr"/>
@@ -8853,20 +7271,16 @@
           <t>юэ</t>
         </is>
       </c>
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BH29" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="BI29" t="inlineStr">
         <is>
           <t>яф</t>
         </is>
       </c>
-      <c r="BJ29" t="inlineStr">
-        <is>
-          <t>0.000084</t>
-        </is>
+      <c r="BJ29" t="n">
+        <v>8.360029694825476e-05</v>
       </c>
     </row>
     <row r="30">
@@ -8875,30 +7289,24 @@
           <t>ац</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.000134</t>
-        </is>
+      <c r="B30" t="n">
+        <v>0.0001337604751172076</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>бз</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="D30" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>вф</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.000033</t>
-        </is>
+      <c r="F30" t="n">
+        <v>3.34401187793019e-05</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -8907,20 +7315,16 @@
           <t>дф</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="J30" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>ею</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0.000217</t>
-        </is>
+      <c r="L30" t="n">
+        <v>0.0002173607720654624</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -8929,20 +7333,16 @@
           <t>зф</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="P30" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>иф</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.000144</t>
-        </is>
+      <c r="R30" t="n">
+        <v>0.0001437925107509982</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -8953,40 +7353,32 @@
           <t>лщ</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="X30" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
           <t>мщ</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="Z30" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>нэ</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>0.000033</t>
-        </is>
+      <c r="AB30" t="n">
+        <v>3.34401187793019e-05</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
           <t>оц</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>0.000147</t>
-        </is>
+      <c r="AD30" t="n">
+        <v>0.0001471365226289284</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
@@ -8995,40 +7387,32 @@
           <t>рэ</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>0.000013</t>
-        </is>
+      <c r="AH30" t="n">
+        <v>1.337604751172076e-05</v>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
           <t>сф</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>0.000043</t>
-        </is>
+      <c r="AJ30" t="n">
+        <v>4.347215441309247e-05</v>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
           <t>тц</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="AL30" t="n">
+        <v>3.67841306572321e-05</v>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
           <t>уц</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AN30" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
@@ -9055,10 +7439,8 @@
           <t>яй</t>
         </is>
       </c>
-      <c r="BJ30" t="inlineStr">
-        <is>
-          <t>0.000064</t>
-        </is>
+      <c r="BJ30" t="n">
+        <v>6.353622568067362e-05</v>
       </c>
     </row>
     <row r="31">
@@ -9071,10 +7453,8 @@
           <t>вю</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="F31" t="n">
+        <v>1.672005938965095e-05</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -9083,10 +7463,8 @@
           <t>дщ</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="J31" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -9097,10 +7475,8 @@
           <t>зщ</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="P31" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -9113,30 +7489,24 @@
           <t>лц</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="X31" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
           <t>мю</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="Z31" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>нш</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AB31" t="n">
+        <v>2.006407126758114e-05</v>
       </c>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
@@ -9147,30 +7517,24 @@
           <t>рф</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>0.000007</t>
-        </is>
+      <c r="AH31" t="n">
+        <v>6.688023755860381e-06</v>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
           <t>сщ</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AJ31" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
           <t>тщ</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>0.000010</t>
-        </is>
+      <c r="AL31" t="n">
+        <v>1.003203563379057e-05</v>
       </c>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
@@ -9207,10 +7571,8 @@
           <t>вй</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="F32" t="n">
+        <v>3.34401187793019e-06</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
